--- a/public/todo.xlsx
+++ b/public/todo.xlsx
@@ -674,7 +674,7 @@
   <dimension ref="C2:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,8 +880,8 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>14</v>
+      <c r="D17" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">

--- a/public/todo.xlsx
+++ b/public/todo.xlsx
@@ -335,7 +335,7 @@
   <autoFilter ref="C9:D17" xr:uid="{48829A6E-79F6-4D53-AD03-5702AEF381FD}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{BA6C66A5-AE69-4732-8DD4-546857C4737F}" name="IV.2 Profil de l’utilisateur"/>
-    <tableColumn id="2" xr3:uid="{C2D03A46-2034-46E6-9724-280EA16E5FF7}" name="STATE" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{C2D03A46-2034-46E6-9724-280EA16E5FF7}" name="STATE" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -346,7 +346,7 @@
   <autoFilter ref="C19:D24" xr:uid="{790F5346-67FA-4846-BE4F-ED2A38229D37}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{604100AC-945C-405A-A02C-42B03C7BD24B}" name="IV.3 Parcours"/>
-    <tableColumn id="2" xr3:uid="{4C09768F-E7DE-4E2D-AC2C-4C168534AA93}" name="STATE" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{4C09768F-E7DE-4E2D-AC2C-4C168534AA93}" name="STATE" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -357,7 +357,7 @@
   <autoFilter ref="F2:G8" xr:uid="{B8C99FCE-7584-46ED-8BE8-10CD3FAE69FF}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5A23EA10-72F6-443D-9F5C-574C6BC6DC0A}" name="IV.4 Recherche"/>
-    <tableColumn id="2" xr3:uid="{D5077F87-293E-47D8-8160-CB208EC87E0A}" name="STATE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D5077F87-293E-47D8-8160-CB208EC87E0A}" name="STATE" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -368,7 +368,7 @@
   <autoFilter ref="F10:G16" xr:uid="{50D2592B-5AA0-42D5-80AB-3F897067CFF2}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{89365151-7A69-4DA3-A0C8-A79013E4E46D}" name="IV.5 Profil des autres utilisateurs"/>
-    <tableColumn id="2" xr3:uid="{5BA6742A-FC4E-41F6-BC7D-F9DD2D1F0C10}" name="STATE" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{5BA6742A-FC4E-41F6-BC7D-F9DD2D1F0C10}" name="STATE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -674,7 +674,7 @@
   <dimension ref="C2:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,8 +708,8 @@
       <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>14</v>
+      <c r="G3" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
@@ -722,8 +722,8 @@
       <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>14</v>
+      <c r="G4" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
@@ -736,8 +736,8 @@
       <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
+      <c r="G5" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.3">
@@ -750,16 +750,16 @@
       <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>14</v>
+      <c r="G6" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>14</v>
+      <c r="G7" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
